--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam2-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam2-Itga9.xlsx
@@ -537,7 +537,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H2">
         <v>0.195479</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N2">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q2">
-        <v>0.1142169461873333</v>
+        <v>0.3074062572205556</v>
       </c>
       <c r="R2">
-        <v>1.027952515686</v>
+        <v>2.766656314985</v>
       </c>
       <c r="S2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="T2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H3">
         <v>0.195479</v>
@@ -620,25 +620,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P3">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q3">
-        <v>0.2004495314125555</v>
+        <v>0.2004495314125556</v>
       </c>
       <c r="R3">
-        <v>1.804045782712999</v>
+        <v>1.804045782713</v>
       </c>
       <c r="S3">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="T3">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H4">
         <v>0.195479</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N4">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q4">
-        <v>0.03856307628522222</v>
+        <v>0.04501505615922222</v>
       </c>
       <c r="R4">
-        <v>0.347067686567</v>
+        <v>0.405135505433</v>
       </c>
       <c r="S4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="T4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H5">
         <v>0.195479</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N5">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q5">
-        <v>0.475866823157111</v>
+        <v>0.9824229153589999</v>
       </c>
       <c r="R5">
-        <v>4.282801408414</v>
+        <v>8.841806238230999</v>
       </c>
       <c r="S5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="T5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
     </row>
   </sheetData>
